--- a/src/test/resources/testData/LoginTests.xlsx
+++ b/src/test/resources/testData/LoginTests.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>S.No.</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>lauren_Weing@yopmail.com</t>
+    <t>lauren1200@yopmail.com</t>
   </si>
   <si>
     <t>Qwerty123@</t>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>Weiniger</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>lauren_2288@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -194,14 +200,30 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5"/>

--- a/src/test/resources/testData/LoginTests.xlsx
+++ b/src/test/resources/testData/LoginTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CC0930-38E8-5A49-8875-989B78F6DDDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6A5237-7721-D740-802B-AFF6F2C277C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>lauren.weiniger.19847@yopmail.com</t>
+    <t>lauren.weiniger.19848@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -11525,6 +11525,9 @@
       <formula1>"0,1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{2D49EF3C-EDD1-E048-AF30-C55440546AEB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/LoginTests.xlsx
+++ b/src/test/resources/testData/LoginTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6A5237-7721-D740-802B-AFF6F2C277C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBC99BE-C49A-8045-BF37-6FA4BD252207}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>lauren.weiniger.19848@yopmail.com</t>
+    <t>lauren.weiniger.19849@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -11525,9 +11525,6 @@
       <formula1>"0,1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{2D49EF3C-EDD1-E048-AF30-C55440546AEB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/LoginTests.xlsx
+++ b/src/test/resources/testData/LoginTests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBC99BE-C49A-8045-BF37-6FA4BD252207}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED4F26A-1BA6-DE40-A00B-0A1D26F8F0C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>lauren.weiniger.19849@yopmail.com</t>
+    <t>lauren.weiniger.19853@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/LoginTests.xlsx
+++ b/src/test/resources/testData/LoginTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED4F26A-1BA6-DE40-A00B-0A1D26F8F0C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD767EBE-DB88-FB42-BAEE-98B3CF6F3FF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>lauren.weiniger.19853@yopmail.com</t>
+    <t>lauren.weiniger.19854@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/LoginTests.xlsx
+++ b/src/test/resources/testData/LoginTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD767EBE-DB88-FB42-BAEE-98B3CF6F3FF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383529D1-92E0-8741-B48D-393539ED8AAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>lauren.weiniger.19854@yopmail.com</t>
+    <t>lauren.weiniger.19855@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/LoginTests.xlsx
+++ b/src/test/resources/testData/LoginTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383529D1-92E0-8741-B48D-393539ED8AAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF84962-85D2-0647-A1F6-A186CCC3AD2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>lauren.weiniger.19855@yopmail.com</t>
+    <t>lauren.weiniger.19856@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/LoginTests.xlsx
+++ b/src/test/resources/testData/LoginTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF84962-85D2-0647-A1F6-A186CCC3AD2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70574D76-5189-3E4D-A5D5-C823AFDEDB0B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>lauren.weiniger.19856@yopmail.com</t>
+    <t>lauren.weiniger.19857@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/LoginTests.xlsx
+++ b/src/test/resources/testData/LoginTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70574D76-5189-3E4D-A5D5-C823AFDEDB0B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54240EC5-ED31-484A-B205-D8788CFA6095}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>lauren.weiniger.19857@yopmail.com</t>
+    <t>lauren.weiniger.19858@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -11525,6 +11525,9 @@
       <formula1>"0,1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{027DA7CE-036C-E64A-9191-5B687A74F604}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/LoginTests.xlsx
+++ b/src/test/resources/testData/LoginTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54240EC5-ED31-484A-B205-D8788CFA6095}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8287A17-86E1-FA4C-AB30-E404C0E27C0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>lauren.weiniger.19858@yopmail.com</t>
+    <t>lauren.weiniger.19859@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -11525,9 +11525,6 @@
       <formula1>"0,1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{027DA7CE-036C-E64A-9191-5B687A74F604}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/LoginTests.xlsx
+++ b/src/test/resources/testData/LoginTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8287A17-86E1-FA4C-AB30-E404C0E27C0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542300CA-8CA6-8940-8015-5622E69947A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>lauren.weiniger.19859@yopmail.com</t>
+    <t>lauren.weiniger.19860@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/LoginTests.xlsx
+++ b/src/test/resources/testData/LoginTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542300CA-8CA6-8940-8015-5622E69947A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7622B6-BB6A-D34B-B362-E3B1F95B2755}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>lauren.weiniger.19860@yopmail.com</t>
+    <t>lauren.weiniger.19861@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:I999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/testData/LoginTests.xlsx
+++ b/src/test/resources/testData/LoginTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7622B6-BB6A-D34B-B362-E3B1F95B2755}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068D79F7-CA81-7C48-B51B-D3A41FE3F8F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>lauren.weiniger.19861@yopmail.com</t>
+    <t>lauren.weiniger.19862@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:I999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11525,6 +11525,9 @@
       <formula1>"0,1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{0FFCEAC4-BF8D-1744-AA48-4D63C1C5834C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/LoginTests.xlsx
+++ b/src/test/resources/testData/LoginTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068D79F7-CA81-7C48-B51B-D3A41FE3F8F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DAD594-4ABF-9141-84FB-A0624114FBEE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>lauren.weiniger.19862@yopmail.com</t>
+    <t>lauren.weiniger.19863@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -11525,9 +11525,6 @@
       <formula1>"0,1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{0FFCEAC4-BF8D-1744-AA48-4D63C1C5834C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/LoginTests.xlsx
+++ b/src/test/resources/testData/LoginTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DAD594-4ABF-9141-84FB-A0624114FBEE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AABD6A-E6D4-D24B-8762-472B2E88B6A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>lauren.weiniger.19863@yopmail.com</t>
+    <t>lauren.weiniger.19864@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/LoginTests.xlsx
+++ b/src/test/resources/testData/LoginTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AABD6A-E6D4-D24B-8762-472B2E88B6A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DDF17B-7857-D04B-8C4E-12A5DA8144FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>lauren.weiniger.19864@yopmail.com</t>
+    <t>lauren.weiniger.19865@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/LoginTests.xlsx
+++ b/src/test/resources/testData/LoginTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DDF17B-7857-D04B-8C4E-12A5DA8144FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1893FC0F-250D-694E-978D-9E5DFEEF6AAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>lauren.weiniger.19865@yopmail.com</t>
+    <t>lauren.weiniger.19866@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/LoginTests.xlsx
+++ b/src/test/resources/testData/LoginTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1893FC0F-250D-694E-978D-9E5DFEEF6AAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC467CC8-402B-794F-92AE-8D4251B21EDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>lauren.weiniger.19866@yopmail.com</t>
+    <t>lauren.weiniger.19867@yopmail.com</t>
   </si>
 </sst>
 </file>
